--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BC/10/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BC/10/seed3/result_data_KNN.xlsx
@@ -491,7 +491,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.752</v>
+        <v>-12.74</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -572,7 +572,7 @@
         <v>-22.54</v>
       </c>
       <c r="B10" t="n">
-        <v>5.4</v>
+        <v>6.096</v>
       </c>
       <c r="C10" t="n">
         <v>-12.45</v>
@@ -600,10 +600,10 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.35</v>
+        <v>5.258</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.598</v>
+        <v>-10.95</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -673,7 +673,7 @@
         <v>3.89</v>
       </c>
       <c r="C17" t="n">
-        <v>-13.112</v>
+        <v>-13.36</v>
       </c>
       <c r="D17" t="n">
         <v>-7.82</v>
@@ -684,7 +684,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>5.918000000000001</v>
+        <v>5.681</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -799,7 +799,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.836</v>
+        <v>-12.778</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -813,7 +813,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.23</v>
+        <v>-13.657</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -827,7 +827,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-12.196</v>
+        <v>-12.623</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -950,10 +950,10 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.65</v>
+        <v>8.190999999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>-11.718</v>
+        <v>-12.055</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1202,7 +1202,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>4.702</v>
+        <v>4.865</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1345,7 +1345,7 @@
         <v>6.69</v>
       </c>
       <c r="C65" t="n">
-        <v>-12.934</v>
+        <v>-11.8</v>
       </c>
       <c r="D65" t="n">
         <v>-7.07</v>
@@ -1384,7 +1384,7 @@
         <v>-21.44</v>
       </c>
       <c r="B68" t="n">
-        <v>4.712000000000001</v>
+        <v>4.746</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
@@ -1457,7 +1457,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-11.864</v>
+        <v>-12.215</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1510,7 +1510,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>7.019999999999999</v>
+        <v>6.209999999999999</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1524,7 +1524,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>9.508000000000001</v>
+        <v>7.708</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1611,7 +1611,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-14.45</v>
+        <v>-13.609</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1625,7 +1625,7 @@
         <v>4.31</v>
       </c>
       <c r="C85" t="n">
-        <v>-11</v>
+        <v>-12.09</v>
       </c>
       <c r="D85" t="n">
         <v>-7.87</v>
@@ -1737,7 +1737,7 @@
         <v>4.28</v>
       </c>
       <c r="C93" t="n">
-        <v>-10.394</v>
+        <v>-10.438</v>
       </c>
       <c r="D93" t="n">
         <v>-5.79</v>
@@ -1765,7 +1765,7 @@
         <v>7.55</v>
       </c>
       <c r="C95" t="n">
-        <v>-12.124</v>
+        <v>-12.041</v>
       </c>
       <c r="D95" t="n">
         <v>-6.1</v>
@@ -1807,7 +1807,7 @@
         <v>5.8</v>
       </c>
       <c r="C98" t="n">
-        <v>-13.936</v>
+        <v>-13.071</v>
       </c>
       <c r="D98" t="n">
         <v>-8.529999999999999</v>
@@ -1821,7 +1821,7 @@
         <v>5.08</v>
       </c>
       <c r="C99" t="n">
-        <v>-11.162</v>
+        <v>-11.312</v>
       </c>
       <c r="D99" t="n">
         <v>-7.59</v>
@@ -1849,7 +1849,7 @@
         <v>8.42</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.254</v>
+        <v>-12.188</v>
       </c>
       <c r="D101" t="n">
         <v>-7.98</v>
